--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\AppData\Local\Temp\scp59469\home\shane\php\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Documents\School\PND\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5DE07E-A904-41E2-9C8A-8C538DAA9B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B25EF-2F2B-496D-82A7-4C1BEE2EE3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
@@ -197,7 +219,7 @@
     <numFmt numFmtId="172" formatCode="#,##0.00000_ ;[Red]\-#,##0.00000\ "/>
     <numFmt numFmtId="173" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +335,11 @@
       <sz val="10"/>
       <name val="Geneva"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -668,11 +695,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -729,15 +753,6 @@
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -845,8 +860,14 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,14 +923,24 @@
     <xf numFmtId="4" fontId="4" fillId="4" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1207,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1227,292 +1258,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.2" thickBot="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="62" t="s">
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:11" ht="24.6" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="71" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" thickBot="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="68" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="74" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="34.799999999999997" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="22" t="str">
+    <row r="5" spans="1:11" s="81" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="78" t="str">
         <f>IF(ISBLANK(C5),"",C5)</f>
         <v/>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="22" t="str">
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="78" t="str">
         <f>IF(ISBLANK(C5),"",C5)</f>
         <v/>
       </c>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="22" t="str">
+      <c r="K5" s="79"/>
+    </row>
+    <row r="6" spans="1:11" s="81" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="78" t="str">
         <f t="shared" ref="G6:G7" si="0">IF(ISBLANK(C6),"",C6)</f>
         <v/>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="22" t="str">
+      <c r="H6" s="79"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="78" t="str">
         <f t="shared" ref="J6:J7" si="1">IF(ISBLANK(C6),"",C6)</f>
         <v/>
       </c>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="22" t="str">
+      <c r="K6" s="79"/>
+    </row>
+    <row r="7" spans="1:11" s="81" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="78" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="22" t="str">
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:11" ht="20.399999999999999" thickBot="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24">
         <f>SUM(E5:E7)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="28">
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="24">
         <f>SUM(H5:H7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="54">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="20.399999999999999" thickBot="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29">
         <v>0</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="33">
+      <c r="F9" s="30"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="29">
         <f>Herziening!D34</f>
         <v>0.19</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="54">
         <f>Herziening!D34</f>
         <v>0.19</v>
       </c>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="10" spans="1:11" ht="20.399999999999999" thickBot="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29">
         <f>ROUND(E8+E9,2)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="33">
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="29">
         <f>ROUND(H8+H9,2)</f>
         <v>0.19</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="54">
         <f>ROUND(I8+I9,2)</f>
         <v>0.19</v>
       </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
     </row>
     <row r="11" spans="1:11" ht="20.399999999999999" thickBot="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33">
-        <f>E10*0.21</f>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">E10*(SUMPRODUCT(MID(0&amp;A11, LARGE(INDEX(ISNUMBER(--MID(A11, ROW(INDIRECT("1:"&amp;LEN(A11))), 1)) * ROW(INDIRECT("1:"&amp;LEN(A11))), 0), ROW(INDIRECT("1:"&amp;LEN(A11))))+1, 1) * 10^ROW(INDIRECT("1:"&amp;LEN(A11)))/10)/100)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="33">
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="29">
         <f>H10*0.21</f>
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="54">
         <f>I10*0.21</f>
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="1:11" ht="20.399999999999999" thickBot="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33">
-        <f>ROUND(E10+E11,2)</f>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29">
+        <f ca="1">ROUND(E10+E11,2)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="33">
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="29">
         <f>ROUND(H10+H11,2)</f>
         <v>0.23</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="54">
         <f>ROUND(I10+I11,2)</f>
         <v>0.23</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1541,528 +1576,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="15.6">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="15.6">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11" ht="15.6">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="16.8" thickBot="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39">
         <v>1</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="16.2" thickTop="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="16.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" ht="15.6">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:11" ht="15.6">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" ht="15.6">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:11" ht="15.6">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" ht="15.6">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38">
+      <c r="E13" s="33"/>
+      <c r="F13" s="34">
         <v>31.103000000000002</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="15.6">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" ht="15.6">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="15.6">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="15.6">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38">
+      <c r="E17" s="33"/>
+      <c r="F17" s="34">
         <v>31.247</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="15.6">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="15.6">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="15.6">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="45">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="41">
         <v>42380</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="41">
         <v>42400</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39" t="s">
+      <c r="I20" s="35"/>
+      <c r="J20" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="43">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="47"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="15.6">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="48">
+      <c r="C22" s="33"/>
+      <c r="D22" s="44">
         <v>1.0046299999999999</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G22" s="46">
         <v>0.40184999999999998</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="15.6">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50">
+      <c r="C23" s="33"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46">
         <v>0.4</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" ht="15.6">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="51">
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="47">
         <v>0.2</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" ht="15.6">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="48">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="44">
         <v>1.0018499999999999</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" ht="15.6">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" ht="15.6">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="47">
+      <c r="C27" s="33"/>
+      <c r="D27" s="43">
         <v>100.19</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" ht="15.6">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="47">
+      <c r="C28" s="33"/>
+      <c r="D28" s="43">
         <v>0.19</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" ht="15.6">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" ht="15.6">
-      <c r="A30" s="37"/>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53">
+      <c r="C30" s="48"/>
+      <c r="D30" s="49">
         <v>42400</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" ht="15.6">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="47">
+      <c r="C31" s="33"/>
+      <c r="D31" s="43">
         <v>0</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" ht="15.6">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="47">
+      <c r="C32" s="33"/>
+      <c r="D32" s="43">
         <v>0.19</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" ht="15.6">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:11" ht="15.6">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="47">
+      <c r="C34" s="33"/>
+      <c r="D34" s="43">
         <v>0.19</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Documents\School\PND\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91B25EF-2F2B-496D-82A7-4C1BEE2EE3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF06295-52A3-4427-90E7-056FA97C1021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -860,69 +860,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="16" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="15" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="16" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="7" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -941,6 +878,73 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="15" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="16" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="7" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1238,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1255,9 +1259,10 @@
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.2" thickBot="1">
+    <row r="1" spans="1:13" ht="25.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,18 +1272,18 @@
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" customHeight="1">
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.6" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1288,18 +1293,18 @@
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="69" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.399999999999999" thickBot="1">
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -1307,18 +1312,18 @@
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="72" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-    </row>
-    <row r="4" spans="1:11" ht="34.799999999999997" thickBot="1">
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:13" ht="34.799999999999997" thickBot="1">
       <c r="A4" s="50" t="s">
         <v>6</v>
       </c>
@@ -1353,64 +1358,67 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="81" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="78" t="str">
+    <row r="5" spans="1:13" s="60" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="57" t="str">
         <f>IF(ISBLANK(C5),"",C5)</f>
         <v/>
       </c>
-      <c r="H5" s="79"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="78" t="str">
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="57" t="str">
         <f>IF(ISBLANK(C5),"",C5)</f>
         <v/>
       </c>
-      <c r="K5" s="79"/>
-    </row>
-    <row r="6" spans="1:11" s="81" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="78" t="str">
+      <c r="K5" s="58"/>
+      <c r="M5" s="62"/>
+    </row>
+    <row r="6" spans="1:13" s="60" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="57" t="str">
         <f t="shared" ref="G6:G7" si="0">IF(ISBLANK(C6),"",C6)</f>
         <v/>
       </c>
-      <c r="H6" s="79"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="78" t="str">
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="57" t="str">
         <f t="shared" ref="J6:J7" si="1">IF(ISBLANK(C6),"",C6)</f>
         <v/>
       </c>
-      <c r="K6" s="79"/>
-    </row>
-    <row r="7" spans="1:11" s="81" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="78" t="str">
+      <c r="K6" s="58"/>
+      <c r="M6" s="62"/>
+    </row>
+    <row r="7" spans="1:13" s="60" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="78" t="str">
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="79"/>
-    </row>
-    <row r="8" spans="1:11" ht="20.399999999999999" thickBot="1">
+      <c r="K7" s="58"/>
+      <c r="M7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -1427,14 +1435,14 @@
         <f>SUM(H5:H7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="63">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="1:11" ht="20.399999999999999" thickBot="1">
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
@@ -1450,14 +1458,14 @@
         <f>Herziening!D34</f>
         <v>0.19</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="63">
         <f>Herziening!D34</f>
         <v>0.19</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.399999999999999" thickBot="1">
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
@@ -1474,14 +1482,14 @@
         <f>ROUND(H8+H9,2)</f>
         <v>0.19</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="63">
         <f>ROUND(I8+I9,2)</f>
         <v>0.19</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" ht="20.399999999999999" thickBot="1">
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
@@ -1498,14 +1506,14 @@
         <f>H10*0.21</f>
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="63">
         <f>I10*0.21</f>
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.399999999999999" thickBot="1">
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A12" s="20" t="s">
         <v>17</v>
       </c>
@@ -1522,15 +1530,15 @@
         <f>ROUND(H10+H11,2)</f>
         <v>0.23</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="63">
         <f>ROUND(I10+I11,2)</f>
         <v>0.23</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="75"/>
+      <c r="D17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shane\Documents\School\PND\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF06295-52A3-4427-90E7-056FA97C1021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254A09C1-DB7B-4506-87C1-69103535893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -219,7 +219,7 @@
     <numFmt numFmtId="172" formatCode="#,##0.00000_ ;[Red]\-#,##0.00000\ "/>
     <numFmt numFmtId="173" formatCode="#,##0.0000_ ;[Red]\-#,##0.0000\ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +340,12 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -880,8 +886,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="15" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="16" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="7" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -892,59 +949,8 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="14" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="15" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="16" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="1" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="2" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="7" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="8" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="9" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1244,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1272,16 +1278,16 @@
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="71"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:13" ht="24.6" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -1293,16 +1299,16 @@
       <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="78" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A3" s="11" t="s">
@@ -1312,16 +1318,16 @@
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="81" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:13" ht="34.799999999999997" thickBot="1">
       <c r="A4" s="50" t="s">
@@ -1376,7 +1382,10 @@
         <v/>
       </c>
       <c r="K5" s="58"/>
-      <c r="M5" s="62"/>
+      <c r="M5" s="83" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),,-2)),"",ROUND(INDIRECT(ADDRESS(ROW(),COLUMN(E8998)))-OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),,-2),2))</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:13" s="60" customFormat="1" ht="26.4" customHeight="1">
       <c r="A6" s="55"/>
@@ -1396,7 +1405,10 @@
         <v/>
       </c>
       <c r="K6" s="58"/>
-      <c r="M6" s="62"/>
+      <c r="M6" s="83" t="str">
+        <f t="shared" ref="M6:M7" ca="1" si="2">IF(ISBLANK(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),,-2)),"",ROUND(INDIRECT(ADDRESS(ROW(),COLUMN(E8999)))-OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),,-2),2))</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:13" s="60" customFormat="1" ht="26.4" customHeight="1" thickBot="1">
       <c r="A7" s="55"/>
@@ -1416,7 +1428,10 @@
         <v/>
       </c>
       <c r="K7" s="58"/>
-      <c r="M7" s="62"/>
+      <c r="M7" s="83" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A8" s="20" t="s">
@@ -1435,12 +1450,16 @@
         <f>SUM(H5:H7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="80">
         <f>SUM(K5:K7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="M8" s="61" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">E8-OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),,-4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A9" s="20" t="s">
@@ -1458,12 +1477,12 @@
         <f>Herziening!D34</f>
         <v>0.19</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="80">
         <f>Herziening!D34</f>
         <v>0.19</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A10" s="20" t="s">
@@ -1482,12 +1501,12 @@
         <f>ROUND(H8+H9,2)</f>
         <v>0.19</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="80">
         <f>ROUND(I8+I9,2)</f>
         <v>0.19</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
     </row>
     <row r="11" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A11" s="20" t="s">
@@ -1506,12 +1525,12 @@
         <f>H10*0.21</f>
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="80">
         <f>I10*0.21</f>
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="1:13" ht="20.399999999999999" thickBot="1">
       <c r="A12" s="20" t="s">
@@ -1530,29 +1549,29 @@
         <f>ROUND(H10+H11,2)</f>
         <v>0.23</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="80">
         <f>ROUND(I10+I11,2)</f>
         <v>0.23</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
